--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>87.05896960776526</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>121.5908820730844</v>
       </c>
       <c r="D2">
-        <v>139</v>
+        <v>139.1267513772549</v>
       </c>
       <c r="E2">
-        <v>151</v>
+        <v>151.0904561212856</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>108</v>
+        <v>108.4127932275976</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>150.7408927521585</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>170.1596471166625</v>
       </c>
       <c r="E3">
-        <v>185</v>
+        <v>184.449893567176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>88.11090091047247</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>125.3638410699251</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>144.9366791515159</v>
       </c>
       <c r="E4">
-        <v>162</v>
+        <v>161.4687760621436</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>77.31666034521888</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>106.4939872810278</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>117.4312684384487</v>
       </c>
       <c r="E5">
-        <v>127</v>
+        <v>127.0904548670038</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>67.31403954872444</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>92.36376584674709</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>102.7773699613961</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>110.145913017866</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>7.417616878112186</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>10.09324119835396</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>11.2473686372922</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>11.90631588347215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>354</v>
+        <v>354.1652498938367</v>
       </c>
       <c r="C8">
-        <v>495</v>
+        <v>494.5730662335637</v>
       </c>
       <c r="D8">
-        <v>569</v>
+        <v>568.1351722164003</v>
       </c>
       <c r="E8">
-        <v>608</v>
+        <v>607.7426005555698</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>102.6346280693362</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>140.6306409278736</v>
       </c>
       <c r="D9">
-        <v>156</v>
+        <v>155.9050442419406</v>
       </c>
       <c r="E9">
-        <v>166</v>
+        <v>165.6749734071279</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>44.57510951385223</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>59.11961234769119</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>65.45753887596777</v>
       </c>
       <c r="E10">
-        <v>67</v>
+        <v>67.23620524088079</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>8.121063019364485</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>10.20766562908081</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>11.17089555135803</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>12.38720678934606</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>18.46051038324407</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>24.6250343134057</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>26.04882697309632</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>25.63671716669452</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>24.99308611141655</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>32.81894819064438</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36.64986214925756</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>38.07595649708872</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>87.05896960776526</v>
+        <v>88.09512209212902</v>
       </c>
       <c r="C2">
-        <v>121.5908820730844</v>
+        <v>122.8752923687182</v>
       </c>
       <c r="D2">
-        <v>139.1267513772549</v>
+        <v>140.4649305349731</v>
       </c>
       <c r="E2">
-        <v>151.0904561212856</v>
+        <v>152.3759665483246</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>108.4127932275976</v>
+        <v>109.7616899675961</v>
       </c>
       <c r="C3">
-        <v>150.7408927521585</v>
+        <v>152.4139567022804</v>
       </c>
       <c r="D3">
-        <v>170.1596471166625</v>
+        <v>171.8865683428809</v>
       </c>
       <c r="E3">
-        <v>184.449893567176</v>
+        <v>186.1018932339855</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>88.11090091047247</v>
+        <v>89.07615236330427</v>
       </c>
       <c r="C4">
-        <v>125.3638410699251</v>
+        <v>126.5733160212505</v>
       </c>
       <c r="D4">
-        <v>144.9366791515159</v>
+        <v>146.2030952735857</v>
       </c>
       <c r="E4">
-        <v>161.4687760621436</v>
+        <v>162.7257390116035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77.31666034521888</v>
+        <v>78.332206316905</v>
       </c>
       <c r="C5">
-        <v>106.4939872810278</v>
+        <v>107.7504331296123</v>
       </c>
       <c r="D5">
-        <v>117.4312684384487</v>
+        <v>118.7076051509529</v>
       </c>
       <c r="E5">
-        <v>127.0904548670038</v>
+        <v>128.3091874784875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67.31403954872444</v>
+        <v>68.18701711181139</v>
       </c>
       <c r="C6">
-        <v>92.36376584674709</v>
+        <v>93.43753236241514</v>
       </c>
       <c r="D6">
-        <v>102.7773699613961</v>
+        <v>103.8763834122077</v>
       </c>
       <c r="E6">
-        <v>110.145913017866</v>
+        <v>111.1853124387839</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.417616878112186</v>
+        <v>7.517089775047003</v>
       </c>
       <c r="C7">
-        <v>10.09324119835396</v>
+        <v>10.21511999204041</v>
       </c>
       <c r="D7">
-        <v>11.2473686372922</v>
+        <v>11.3728030142271</v>
       </c>
       <c r="E7">
-        <v>11.90631588347215</v>
+        <v>12.02350186905177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>354.1652498938367</v>
+        <v>358.492594111587</v>
       </c>
       <c r="C8">
-        <v>494.5730662335637</v>
+        <v>499.9719941215532</v>
       </c>
       <c r="D8">
-        <v>568.1351722164003</v>
+        <v>573.809771499637</v>
       </c>
       <c r="E8">
-        <v>607.7426005555698</v>
+        <v>613.0830182722573</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102.6346280693362</v>
+        <v>104.0122622924872</v>
       </c>
       <c r="C9">
-        <v>140.6306409278736</v>
+        <v>142.3326519684174</v>
       </c>
       <c r="D9">
-        <v>155.9050442419406</v>
+        <v>157.6476894685577</v>
       </c>
       <c r="E9">
-        <v>165.6749734071279</v>
+        <v>167.3080908080238</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44.57510951385223</v>
+        <v>45.20527448267596</v>
       </c>
       <c r="C10">
-        <v>59.11961234769119</v>
+        <v>59.88081739165651</v>
       </c>
       <c r="D10">
-        <v>65.45753887596777</v>
+        <v>66.24351636526342</v>
       </c>
       <c r="E10">
-        <v>67.23620524088079</v>
+        <v>67.95026321152028</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.121063019364485</v>
+        <v>8.235814857208368</v>
       </c>
       <c r="C11">
-        <v>10.20766562908081</v>
+        <v>10.33906621362205</v>
       </c>
       <c r="D11">
-        <v>11.17089555135803</v>
+        <v>11.30501302485728</v>
       </c>
       <c r="E11">
-        <v>12.38720678934606</v>
+        <v>12.51877273516097</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.46051038324407</v>
+        <v>18.73786677604931</v>
       </c>
       <c r="C12">
-        <v>24.6250343134057</v>
+        <v>24.96752501600606</v>
       </c>
       <c r="D12">
-        <v>26.04882697309632</v>
+        <v>26.39180645040836</v>
       </c>
       <c r="E12">
-        <v>25.63671716669452</v>
+        <v>25.93710484873178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24.99308611141655</v>
+        <v>25.34690985319946</v>
       </c>
       <c r="C13">
-        <v>32.81894819064438</v>
+        <v>33.24229471242814</v>
       </c>
       <c r="D13">
-        <v>36.64986214925756</v>
+        <v>37.0908174624488</v>
       </c>
       <c r="E13">
-        <v>38.07595649708872</v>
+        <v>38.48114954406899</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Fiets.xlsx
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>89.07615236330427</v>
+        <v>89.07615236330426</v>
       </c>
       <c r="C4">
         <v>126.5733160212505</v>
@@ -459,7 +459,7 @@
         <v>68.18701711181139</v>
       </c>
       <c r="C6">
-        <v>93.43753236241514</v>
+        <v>93.43753236241513</v>
       </c>
       <c r="D6">
         <v>103.8763834122077</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.517089775047003</v>
+        <v>7.517089775047001</v>
       </c>
       <c r="C7">
         <v>10.21511999204041</v>
@@ -493,10 +493,10 @@
         <v>358.492594111587</v>
       </c>
       <c r="C8">
-        <v>499.9719941215532</v>
+        <v>499.9719941215529</v>
       </c>
       <c r="D8">
-        <v>573.809771499637</v>
+        <v>573.8097714996368</v>
       </c>
       <c r="E8">
         <v>613.0830182722573</v>
@@ -527,7 +527,7 @@
         <v>45.20527448267596</v>
       </c>
       <c r="C10">
-        <v>59.88081739165651</v>
+        <v>59.8808173916565</v>
       </c>
       <c r="D10">
         <v>66.24351636526342</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.235814857208368</v>
+        <v>8.235814857208366</v>
       </c>
       <c r="C11">
         <v>10.33906621362205</v>
@@ -581,7 +581,7 @@
         <v>33.24229471242814</v>
       </c>
       <c r="D13">
-        <v>37.0908174624488</v>
+        <v>37.09081746244878</v>
       </c>
       <c r="E13">
         <v>38.48114954406899</v>
